--- a/tests/sample_tests_data/results/lqt_catalog/lqt_catalog.xlsx
+++ b/tests/sample_tests_data/results/lqt_catalog/lqt_catalog.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,25 +495,40 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>p_travel_time_sec</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>p_polarity</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>p_onset</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>s_arr_time</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>s_travel_time_sec</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>s_p_lag_time_sec</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>earthquake_type</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>remarks</t>
         </is>
@@ -557,25 +572,34 @@
       <c r="K2" s="2" t="n">
         <v>45423.64625754691</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="n">
+        <v>0.742054</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="O2" s="2" t="n">
         <v>45423.64626366548</v>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>1.270699</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.528645</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -615,25 +639,34 @@
       <c r="K3" s="2" t="n">
         <v>45423.64625817501</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>0.796322</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="O3" s="2" t="n">
         <v>45423.64626455792</v>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>1.347805</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.5514829999999999</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -673,25 +706,34 @@
       <c r="K4" s="2" t="n">
         <v>45423.6462584152</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>0.817074</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="O4" s="2" t="n">
         <v>45423.6462653202</v>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>1.413666</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.596592</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -731,25 +773,34 @@
       <c r="K5" s="2" t="n">
         <v>45423.64625936428</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>0.899075</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="O5" s="2" t="n">
         <v>45423.64626523375</v>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>1.406197</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.507122</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -789,25 +840,34 @@
       <c r="K6" s="2" t="n">
         <v>45423.64626155058</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>1.087971</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="O6" s="2" t="n">
         <v>45423.64627055927</v>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>1.866322</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.778351</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -847,25 +907,34 @@
       <c r="K7" s="2" t="n">
         <v>45423.64626531009</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>1.412793</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="O7" s="2" t="n">
         <v>45423.6462768978</v>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>2.413971</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.001178</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -905,25 +974,34 @@
       <c r="K8" s="2" t="n">
         <v>45423.68991962368</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>0.635486</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="O8" s="2" t="n">
         <v>45423.68992580254</v>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>1.16934</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5338539999999999</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -963,25 +1041,34 @@
       <c r="K9" s="2" t="n">
         <v>45423.68992070191</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="n">
+        <v>0.728645</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N9" s="2" t="n">
+      <c r="O9" s="2" t="n">
         <v>45423.68992722608</v>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>1.292333</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.563688</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1021,25 +1108,34 @@
       <c r="K10" s="2" t="n">
         <v>45423.68992076758</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="n">
+        <v>0.7343189999999999</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N10" s="2" t="n">
+      <c r="O10" s="2" t="n">
         <v>45423.68992656175</v>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>1.234935</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.5006159999999999</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1079,25 +1175,34 @@
       <c r="K11" s="2" t="n">
         <v>45423.68992090059</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="n">
+        <v>0.745811</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N11" s="2" t="n">
+      <c r="O11" s="2" t="n">
         <v>45423.6899267659</v>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="n">
+        <v>1.252574</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.506763</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1137,25 +1242,34 @@
       <c r="K12" s="2" t="n">
         <v>45423.68992205268</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="n">
+        <v>0.845352</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N12" s="2" t="n">
+      <c r="O12" s="2" t="n">
         <v>45423.68992947602</v>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>1.486728</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.6413759999999999</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1195,25 +1309,34 @@
       <c r="K13" s="2" t="n">
         <v>45423.68992348076</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="n">
+        <v>0.968738</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N13" s="2" t="n">
+      <c r="O13" s="2" t="n">
         <v>45423.68993235735</v>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="n">
+        <v>1.735675</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.766937</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1253,25 +1376,34 @@
       <c r="K14" s="2" t="n">
         <v>45423.68992419908</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="n">
+        <v>1.030801</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N14" s="2" t="n">
+      <c r="O14" s="2" t="n">
         <v>45423.68993319831</v>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="n">
+        <v>1.808334</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.7775329999999999</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1311,25 +1443,34 @@
       <c r="K15" s="2" t="n">
         <v>45423.68992488258</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="n">
+        <v>1.089855</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N15" s="2" t="n">
+      <c r="O15" s="2" t="n">
         <v>45423.68993398043</v>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="n">
+        <v>1.875909</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.7860539999999999</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1369,25 +1510,34 @@
       <c r="K16" s="2" t="n">
         <v>45423.68992574109</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="n">
+        <v>1.16403</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N16" s="2" t="n">
+      <c r="O16" s="2" t="n">
         <v>45423.68993611748</v>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>2.06055</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.89652</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1427,25 +1577,34 @@
       <c r="K17" s="2" t="n">
         <v>45423.68992664301</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="n">
+        <v>1.241956</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N17" s="2" t="n">
+      <c r="O17" s="2" t="n">
         <v>45423.68993687563</v>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="n">
+        <v>2.126054</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.8840979999999999</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1485,25 +1644,34 @@
       <c r="K18" s="2" t="n">
         <v>45423.68992666869</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="n">
+        <v>1.244175</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N18" s="2" t="n">
+      <c r="O18" s="2" t="n">
         <v>45423.68993674594</v>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
+      <c r="P18" t="n">
+        <v>2.114849</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.8706739999999999</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1543,25 +1711,34 @@
       <c r="K19" s="2" t="n">
         <v>45439.05495002843</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="n">
+        <v>0.9024559999999999</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N19" s="2" t="n">
+      <c r="O19" s="2" t="n">
         <v>45439.05495717975</v>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>1.52033</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.6178739999999999</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1601,25 +1778,34 @@
       <c r="K20" s="2" t="n">
         <v>45439.0549502873</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="n">
+        <v>0.924823</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N20" s="2" t="n">
+      <c r="O20" s="2" t="n">
         <v>45439.05495736625</v>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="n">
+        <v>1.536444</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.611621</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1659,25 +1845,34 @@
       <c r="K21" s="2" t="n">
         <v>45439.05495093326</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="n">
+        <v>0.980634</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N21" s="2" t="n">
+      <c r="O21" s="2" t="n">
         <v>45439.05495799483</v>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="n">
+        <v>1.590754</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.61012</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1717,25 +1912,34 @@
       <c r="K22" s="2" t="n">
         <v>45439.05495118813</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="n">
+        <v>1.002654</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N22" s="2" t="n">
+      <c r="O22" s="2" t="n">
         <v>45439.05495962151</v>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>1.731298</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.728644</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1775,25 +1979,34 @@
       <c r="K23" s="2" t="n">
         <v>45439.05495125958</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="n">
+        <v>1.008827</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N23" s="2" t="n">
+      <c r="O23" s="2" t="n">
         <v>45439.05495939923</v>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>1.712094</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.703267</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1833,25 +2046,34 @@
       <c r="K24" s="2" t="n">
         <v>45439.05495202065</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="n">
+        <v>1.074584</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N24" s="2" t="n">
+      <c r="O24" s="2" t="n">
         <v>45439.05496087236</v>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="n">
+        <v>1.839372</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.7647879999999999</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1891,25 +2113,34 @@
       <c r="K25" s="2" t="n">
         <v>45439.05495328954</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="n">
+        <v>1.184216</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N25" s="2" t="n">
+      <c r="O25" s="2" t="n">
         <v>45439.05496270106</v>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>1.997372</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.813156</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1949,25 +2180,34 @@
       <c r="K26" s="2" t="n">
         <v>45439.05495393785</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="n">
+        <v>1.24023</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N26" s="2" t="n">
+      <c r="O26" s="2" t="n">
         <v>45439.05496364712</v>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="n">
+        <v>2.079111</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.838881</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2007,25 +2247,34 @@
       <c r="K27" s="2" t="n">
         <v>45439.05495592442</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="n">
+        <v>1.41187</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N27" s="2" t="n">
+      <c r="O27" s="2" t="n">
         <v>45439.05496723307</v>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="n">
+        <v>2.388937</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.9770669999999999</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2065,25 +2314,34 @@
       <c r="K28" s="2" t="n">
         <v>45439.05495670867</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="n">
+        <v>1.479629</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N28" s="2" t="n">
+      <c r="O28" s="2" t="n">
         <v>45439.05496830251</v>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="n">
+        <v>2.481337</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.001708</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2123,25 +2381,34 @@
       <c r="K29" s="2" t="n">
         <v>45439.05495697389</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="n">
+        <v>1.502544</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N29" s="2" t="n">
+      <c r="O29" s="2" t="n">
         <v>45439.05496939248</v>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="n">
+        <v>2.57551</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.072966</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2181,25 +2448,34 @@
       <c r="K30" s="2" t="n">
         <v>45439.05495745112</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="n">
+        <v>1.543777</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N30" s="2" t="n">
+      <c r="O30" s="2" t="n">
         <v>45439.05497004676</v>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="n">
+        <v>2.63204</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.088263</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2239,25 +2515,34 @@
       <c r="K31" s="2" t="n">
         <v>45439.05495869686</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="n">
+        <v>1.651409</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N31" s="2" t="n">
+      <c r="O31" s="2" t="n">
         <v>45439.05497174719</v>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" t="n">
+        <v>2.778957</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.127548</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2297,25 +2582,34 @@
       <c r="K32" s="2" t="n">
         <v>45439.05561371388</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="n">
+        <v>0.9748789999999999</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N32" s="2" t="n">
+      <c r="O32" s="2" t="n">
         <v>45439.05562156872</v>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="n">
+        <v>1.653538</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.678659</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2355,25 +2649,34 @@
       <c r="K33" s="2" t="n">
         <v>45439.05561375191</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="n">
+        <v>0.978165</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N33" s="2" t="n">
+      <c r="O33" s="2" t="n">
         <v>45439.05562157336</v>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="n">
+        <v>1.653938</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.675773</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2413,25 +2716,34 @@
       <c r="K34" s="2" t="n">
         <v>45439.05561425027</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="n">
+        <v>1.021223</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N34" s="2" t="n">
+      <c r="O34" s="2" t="n">
         <v>45439.05562298699</v>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="n">
+        <v>1.776076</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.754853</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2471,25 +2783,34 @@
       <c r="K35" s="2" t="n">
         <v>45439.05561453923</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="n">
+        <v>1.04619</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N35" s="2" t="n">
+      <c r="O35" s="2" t="n">
         <v>45439.05562335817</v>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr"/>
+      <c r="P35" t="n">
+        <v>1.808146</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.761956</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2529,25 +2850,34 @@
       <c r="K36" s="2" t="n">
         <v>45439.05561455055</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="n">
+        <v>1.047167</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N36" s="2" t="n">
+      <c r="O36" s="2" t="n">
         <v>45439.05562293215</v>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="n">
+        <v>1.771338</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.724171</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2587,25 +2917,34 @@
       <c r="K37" s="2" t="n">
         <v>45439.0556153361</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="n">
+        <v>1.115039</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N37" s="2" t="n">
+      <c r="O37" s="2" t="n">
         <v>45439.05562402521</v>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr"/>
+      <c r="P37" t="n">
+        <v>1.865778</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.7507389999999999</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2645,25 +2984,34 @@
       <c r="K38" s="2" t="n">
         <v>45439.05561754111</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="n">
+        <v>1.305552</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N38" s="2" t="n">
+      <c r="O38" s="2" t="n">
         <v>45439.05562742421</v>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr"/>
+      <c r="P38" t="n">
+        <v>2.159452</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.8539</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2703,25 +3051,34 @@
       <c r="K39" s="2" t="n">
         <v>45439.05561755491</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="n">
+        <v>1.306744</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N39" s="2" t="n">
+      <c r="O39" s="2" t="n">
         <v>45439.05562750278</v>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr"/>
+      <c r="P39" t="n">
+        <v>2.16624</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.8594959999999999</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2761,25 +3118,34 @@
       <c r="K40" s="2" t="n">
         <v>45439.05561798924</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="n">
+        <v>1.344271</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N40" s="2" t="n">
+      <c r="O40" s="2" t="n">
         <v>45439.0556293903</v>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr"/>
+      <c r="P40" t="n">
+        <v>2.329322</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.985051</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2819,25 +3185,34 @@
       <c r="K41" s="2" t="n">
         <v>45439.05561817344</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="n">
+        <v>1.360185</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N41" s="2" t="n">
+      <c r="O41" s="2" t="n">
         <v>45439.05562939693</v>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr"/>
+      <c r="P41" t="n">
+        <v>2.329895</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.96971</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2877,25 +3252,34 @@
       <c r="K42" s="2" t="n">
         <v>45439.05562008315</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="n">
+        <v>1.525184</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N42" s="2" t="n">
+      <c r="O42" s="2" t="n">
         <v>45439.05563267865</v>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr"/>
+      <c r="P42" t="n">
+        <v>2.613435</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.088251</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2935,25 +3319,34 @@
       <c r="K43" s="2" t="n">
         <v>45439.05562121711</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="n">
+        <v>1.623158</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N43" s="2" t="n">
+      <c r="O43" s="2" t="n">
         <v>45439.05563468426</v>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr"/>
+      <c r="P43" t="n">
+        <v>2.78672</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.163562</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2993,25 +3386,34 @@
       <c r="K44" s="2" t="n">
         <v>45439.05562231852</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="n">
+        <v>1.71832</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N44" s="2" t="n">
+      <c r="O44" s="2" t="n">
         <v>45439.0556369709</v>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr"/>
+      <c r="P44" t="n">
+        <v>2.984286</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.265966</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3051,25 +3453,34 @@
       <c r="K45" s="2" t="n">
         <v>45439.05640234184</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="n">
+        <v>0.782335</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N45" s="2" t="n">
+      <c r="O45" s="2" t="n">
         <v>45439.05640997499</v>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="n">
+        <v>1.441839</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.659504</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3109,25 +3520,34 @@
       <c r="K46" s="2" t="n">
         <v>45439.05640276058</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="n">
+        <v>0.818514</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N46" s="2" t="n">
+      <c r="O46" s="2" t="n">
         <v>45439.05641049792</v>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr"/>
+      <c r="P46" t="n">
+        <v>1.48702</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.6685059999999999</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3167,25 +3587,34 @@
       <c r="K47" s="2" t="n">
         <v>45439.05640296644</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="n">
+        <v>0.8362999999999999</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N47" s="2" t="n">
+      <c r="O47" s="2" t="n">
         <v>45439.05641040063</v>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr"/>
+      <c r="P47" t="n">
+        <v>1.478615</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.642315</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3225,25 +3654,34 @@
       <c r="K48" s="2" t="n">
         <v>45439.05640301832</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="n">
+        <v>0.8407829999999999</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N48" s="2" t="n">
+      <c r="O48" s="2" t="n">
         <v>45439.05640988651</v>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr"/>
+      <c r="P48" t="n">
+        <v>1.434195</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.5934119999999999</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3283,25 +3721,34 @@
       <c r="K49" s="2" t="n">
         <v>45439.05640428289</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="n">
+        <v>0.9500419999999999</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N49" s="2" t="n">
+      <c r="O49" s="2" t="n">
         <v>45439.05641237786</v>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" t="n">
+        <v>1.649447</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.6994049999999999</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3341,25 +3788,34 @@
       <c r="K50" s="2" t="n">
         <v>45439.056405988</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="n">
+        <v>1.097363</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N50" s="2" t="n">
+      <c r="O50" s="2" t="n">
         <v>45439.05641574588</v>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr"/>
+      <c r="P50" t="n">
+        <v>1.940444</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.843081</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3399,25 +3855,34 @@
       <c r="K51" s="2" t="n">
         <v>45439.05640750731</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="n">
+        <v>1.228632</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N51" s="2" t="n">
+      <c r="O51" s="2" t="n">
         <v>45439.05641811219</v>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" t="n">
+        <v>2.144893</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.916261</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3457,25 +3922,34 @@
       <c r="K52" s="2" t="n">
         <v>45439.05640864822</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="n">
+        <v>1.327206</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="N52" s="2" t="n">
+      <c r="O52" s="2" t="n">
         <v>45439.0564202427</v>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr"/>
+      <c r="P52" t="n">
+        <v>2.32897</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.001764</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3515,25 +3989,34 @@
       <c r="K53" s="2" t="n">
         <v>45439.05641166113</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="n">
+        <v>1.587522</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="N53" s="2" t="n">
+      <c r="O53" s="2" t="n">
         <v>45439.05642582798</v>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>very_local_earthquake</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr"/>
+      <c r="P53" t="n">
+        <v>2.811537</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.224015</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>very_local_earthquake</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tests/sample_tests_data/results/lqt_catalog/lqt_catalog.xlsx
+++ b/tests/sample_tests_data/results/lqt_catalog/lqt_catalog.xlsx
@@ -440,32 +440,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>network</t>
+          <t>source_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>source_id</t>
+          <t>source_lat</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>source_lat</t>
+          <t>source_lon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>source_lon</t>
+          <t>source_depth_m</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>source_depth_m</t>
+          <t>source_origin_time</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>source_origin_time</t>
+          <t>network_code</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1001</v>
       </c>
       <c r="B2" t="n">
-        <v>1001</v>
+        <v>38.088368</v>
       </c>
       <c r="C2" t="n">
-        <v>38.088368</v>
+        <v>126.596433</v>
       </c>
       <c r="D2" t="n">
-        <v>126.596433</v>
-      </c>
-      <c r="E2" t="n">
         <v>1252.26</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="E2" s="2" t="n">
         <v>45423.64624895832</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -602,25 +602,25 @@
       <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1001</v>
       </c>
       <c r="B3" t="n">
-        <v>1001</v>
+        <v>38.088368</v>
       </c>
       <c r="C3" t="n">
-        <v>38.088368</v>
+        <v>126.596433</v>
       </c>
       <c r="D3" t="n">
-        <v>126.596433</v>
-      </c>
-      <c r="E3" t="n">
         <v>1252.26</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="E3" s="2" t="n">
         <v>45423.64624895832</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -669,25 +669,25 @@
       <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A4" t="n">
+        <v>1001</v>
       </c>
       <c r="B4" t="n">
-        <v>1001</v>
+        <v>38.088368</v>
       </c>
       <c r="C4" t="n">
-        <v>38.088368</v>
+        <v>126.596433</v>
       </c>
       <c r="D4" t="n">
-        <v>126.596433</v>
-      </c>
-      <c r="E4" t="n">
         <v>1252.26</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="E4" s="2" t="n">
         <v>45423.64624895832</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -736,25 +736,25 @@
       <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A5" t="n">
+        <v>1001</v>
       </c>
       <c r="B5" t="n">
-        <v>1001</v>
+        <v>38.088368</v>
       </c>
       <c r="C5" t="n">
-        <v>38.088368</v>
+        <v>126.596433</v>
       </c>
       <c r="D5" t="n">
-        <v>126.596433</v>
-      </c>
-      <c r="E5" t="n">
         <v>1252.26</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="E5" s="2" t="n">
         <v>45423.64624895832</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -803,25 +803,25 @@
       <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A6" t="n">
+        <v>1001</v>
       </c>
       <c r="B6" t="n">
-        <v>1001</v>
+        <v>38.088368</v>
       </c>
       <c r="C6" t="n">
-        <v>38.088368</v>
+        <v>126.596433</v>
       </c>
       <c r="D6" t="n">
-        <v>126.596433</v>
-      </c>
-      <c r="E6" t="n">
         <v>1252.26</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="E6" s="2" t="n">
         <v>45423.64624895832</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -870,25 +870,25 @@
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A7" t="n">
+        <v>1001</v>
       </c>
       <c r="B7" t="n">
-        <v>1001</v>
+        <v>38.088368</v>
       </c>
       <c r="C7" t="n">
-        <v>38.088368</v>
+        <v>126.596433</v>
       </c>
       <c r="D7" t="n">
-        <v>126.596433</v>
-      </c>
-      <c r="E7" t="n">
         <v>1252.26</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="2" t="n">
         <v>45423.64624895832</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -937,25 +937,25 @@
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A8" t="n">
+        <v>1002</v>
       </c>
       <c r="B8" t="n">
-        <v>1002</v>
+        <v>38.085685</v>
       </c>
       <c r="C8" t="n">
-        <v>38.085685</v>
+        <v>126.59125</v>
       </c>
       <c r="D8" t="n">
-        <v>126.59125</v>
-      </c>
-      <c r="E8" t="n">
         <v>1035.99</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="E8" s="2" t="n">
         <v>45423.68991226852</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1004,25 +1004,25 @@
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A9" t="n">
+        <v>1002</v>
       </c>
       <c r="B9" t="n">
-        <v>1002</v>
+        <v>38.085685</v>
       </c>
       <c r="C9" t="n">
-        <v>38.085685</v>
+        <v>126.59125</v>
       </c>
       <c r="D9" t="n">
-        <v>126.59125</v>
-      </c>
-      <c r="E9" t="n">
         <v>1035.99</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="E9" s="2" t="n">
         <v>45423.68991226852</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1071,25 +1071,25 @@
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A10" t="n">
+        <v>1002</v>
       </c>
       <c r="B10" t="n">
-        <v>1002</v>
+        <v>38.085685</v>
       </c>
       <c r="C10" t="n">
-        <v>38.085685</v>
+        <v>126.59125</v>
       </c>
       <c r="D10" t="n">
-        <v>126.59125</v>
-      </c>
-      <c r="E10" t="n">
         <v>1035.99</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="E10" s="2" t="n">
         <v>45423.68991226852</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1138,25 +1138,25 @@
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A11" t="n">
+        <v>1002</v>
       </c>
       <c r="B11" t="n">
-        <v>1002</v>
+        <v>38.085685</v>
       </c>
       <c r="C11" t="n">
-        <v>38.085685</v>
+        <v>126.59125</v>
       </c>
       <c r="D11" t="n">
-        <v>126.59125</v>
-      </c>
-      <c r="E11" t="n">
         <v>1035.99</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="E11" s="2" t="n">
         <v>45423.68991226852</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1205,25 +1205,25 @@
       <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A12" t="n">
+        <v>1002</v>
       </c>
       <c r="B12" t="n">
-        <v>1002</v>
+        <v>38.085685</v>
       </c>
       <c r="C12" t="n">
-        <v>38.085685</v>
+        <v>126.59125</v>
       </c>
       <c r="D12" t="n">
-        <v>126.59125</v>
-      </c>
-      <c r="E12" t="n">
         <v>1035.99</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="E12" s="2" t="n">
         <v>45423.68991226852</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1272,25 +1272,25 @@
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A13" t="n">
+        <v>1002</v>
       </c>
       <c r="B13" t="n">
-        <v>1002</v>
+        <v>38.085685</v>
       </c>
       <c r="C13" t="n">
-        <v>38.085685</v>
+        <v>126.59125</v>
       </c>
       <c r="D13" t="n">
-        <v>126.59125</v>
-      </c>
-      <c r="E13" t="n">
         <v>1035.99</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="E13" s="2" t="n">
         <v>45423.68991226852</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1339,25 +1339,25 @@
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A14" t="n">
+        <v>1002</v>
       </c>
       <c r="B14" t="n">
-        <v>1002</v>
+        <v>38.085685</v>
       </c>
       <c r="C14" t="n">
-        <v>38.085685</v>
+        <v>126.59125</v>
       </c>
       <c r="D14" t="n">
-        <v>126.59125</v>
-      </c>
-      <c r="E14" t="n">
         <v>1035.99</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="E14" s="2" t="n">
         <v>45423.68991226852</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1406,25 +1406,25 @@
       <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A15" t="n">
+        <v>1002</v>
       </c>
       <c r="B15" t="n">
-        <v>1002</v>
+        <v>38.085685</v>
       </c>
       <c r="C15" t="n">
-        <v>38.085685</v>
+        <v>126.59125</v>
       </c>
       <c r="D15" t="n">
-        <v>126.59125</v>
-      </c>
-      <c r="E15" t="n">
         <v>1035.99</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="E15" s="2" t="n">
         <v>45423.68991226852</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1473,25 +1473,25 @@
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A16" t="n">
+        <v>1002</v>
       </c>
       <c r="B16" t="n">
-        <v>1002</v>
+        <v>38.085685</v>
       </c>
       <c r="C16" t="n">
-        <v>38.085685</v>
+        <v>126.59125</v>
       </c>
       <c r="D16" t="n">
-        <v>126.59125</v>
-      </c>
-      <c r="E16" t="n">
         <v>1035.99</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="E16" s="2" t="n">
         <v>45423.68991226852</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1540,25 +1540,25 @@
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A17" t="n">
+        <v>1002</v>
       </c>
       <c r="B17" t="n">
-        <v>1002</v>
+        <v>38.085685</v>
       </c>
       <c r="C17" t="n">
-        <v>38.085685</v>
+        <v>126.59125</v>
       </c>
       <c r="D17" t="n">
-        <v>126.59125</v>
-      </c>
-      <c r="E17" t="n">
         <v>1035.99</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="E17" s="2" t="n">
         <v>45423.68991226852</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1607,25 +1607,25 @@
       <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A18" t="n">
+        <v>1002</v>
       </c>
       <c r="B18" t="n">
-        <v>1002</v>
+        <v>38.085685</v>
       </c>
       <c r="C18" t="n">
-        <v>38.085685</v>
+        <v>126.59125</v>
       </c>
       <c r="D18" t="n">
-        <v>126.59125</v>
-      </c>
-      <c r="E18" t="n">
         <v>1035.99</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="E18" s="2" t="n">
         <v>45423.68991226852</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1674,25 +1674,25 @@
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A19" t="n">
+        <v>1003</v>
       </c>
       <c r="B19" t="n">
-        <v>1003</v>
+        <v>38.084107</v>
       </c>
       <c r="C19" t="n">
-        <v>38.084107</v>
+        <v>126.597537</v>
       </c>
       <c r="D19" t="n">
-        <v>126.597537</v>
-      </c>
-      <c r="E19" t="n">
         <v>705.16</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="E19" s="2" t="n">
         <v>45439.05493958334</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1741,25 +1741,25 @@
       <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A20" t="n">
+        <v>1003</v>
       </c>
       <c r="B20" t="n">
-        <v>1003</v>
+        <v>38.084107</v>
       </c>
       <c r="C20" t="n">
-        <v>38.084107</v>
+        <v>126.597537</v>
       </c>
       <c r="D20" t="n">
-        <v>126.597537</v>
-      </c>
-      <c r="E20" t="n">
         <v>705.16</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="E20" s="2" t="n">
         <v>45439.05493958334</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1808,25 +1808,25 @@
       <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A21" t="n">
+        <v>1003</v>
       </c>
       <c r="B21" t="n">
-        <v>1003</v>
+        <v>38.084107</v>
       </c>
       <c r="C21" t="n">
-        <v>38.084107</v>
+        <v>126.597537</v>
       </c>
       <c r="D21" t="n">
-        <v>126.597537</v>
-      </c>
-      <c r="E21" t="n">
         <v>705.16</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="E21" s="2" t="n">
         <v>45439.05493958334</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1875,25 +1875,25 @@
       <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A22" t="n">
+        <v>1003</v>
       </c>
       <c r="B22" t="n">
-        <v>1003</v>
+        <v>38.084107</v>
       </c>
       <c r="C22" t="n">
-        <v>38.084107</v>
+        <v>126.597537</v>
       </c>
       <c r="D22" t="n">
-        <v>126.597537</v>
-      </c>
-      <c r="E22" t="n">
         <v>705.16</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="E22" s="2" t="n">
         <v>45439.05493958334</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1942,25 +1942,25 @@
       <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A23" t="n">
+        <v>1003</v>
       </c>
       <c r="B23" t="n">
-        <v>1003</v>
+        <v>38.084107</v>
       </c>
       <c r="C23" t="n">
-        <v>38.084107</v>
+        <v>126.597537</v>
       </c>
       <c r="D23" t="n">
-        <v>126.597537</v>
-      </c>
-      <c r="E23" t="n">
         <v>705.16</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="E23" s="2" t="n">
         <v>45439.05493958334</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2009,25 +2009,25 @@
       <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A24" t="n">
+        <v>1003</v>
       </c>
       <c r="B24" t="n">
-        <v>1003</v>
+        <v>38.084107</v>
       </c>
       <c r="C24" t="n">
-        <v>38.084107</v>
+        <v>126.597537</v>
       </c>
       <c r="D24" t="n">
-        <v>126.597537</v>
-      </c>
-      <c r="E24" t="n">
         <v>705.16</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="E24" s="2" t="n">
         <v>45439.05493958334</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2076,25 +2076,25 @@
       <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A25" t="n">
+        <v>1003</v>
       </c>
       <c r="B25" t="n">
-        <v>1003</v>
+        <v>38.084107</v>
       </c>
       <c r="C25" t="n">
-        <v>38.084107</v>
+        <v>126.597537</v>
       </c>
       <c r="D25" t="n">
-        <v>126.597537</v>
-      </c>
-      <c r="E25" t="n">
         <v>705.16</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="E25" s="2" t="n">
         <v>45439.05493958334</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2143,25 +2143,25 @@
       <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A26" t="n">
+        <v>1003</v>
       </c>
       <c r="B26" t="n">
-        <v>1003</v>
+        <v>38.084107</v>
       </c>
       <c r="C26" t="n">
-        <v>38.084107</v>
+        <v>126.597537</v>
       </c>
       <c r="D26" t="n">
-        <v>126.597537</v>
-      </c>
-      <c r="E26" t="n">
         <v>705.16</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="E26" s="2" t="n">
         <v>45439.05493958334</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2210,25 +2210,25 @@
       <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A27" t="n">
+        <v>1003</v>
       </c>
       <c r="B27" t="n">
-        <v>1003</v>
+        <v>38.084107</v>
       </c>
       <c r="C27" t="n">
-        <v>38.084107</v>
+        <v>126.597537</v>
       </c>
       <c r="D27" t="n">
-        <v>126.597537</v>
-      </c>
-      <c r="E27" t="n">
         <v>705.16</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="E27" s="2" t="n">
         <v>45439.05493958334</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2277,25 +2277,25 @@
       <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A28" t="n">
+        <v>1003</v>
       </c>
       <c r="B28" t="n">
-        <v>1003</v>
+        <v>38.084107</v>
       </c>
       <c r="C28" t="n">
-        <v>38.084107</v>
+        <v>126.597537</v>
       </c>
       <c r="D28" t="n">
-        <v>126.597537</v>
-      </c>
-      <c r="E28" t="n">
         <v>705.16</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="E28" s="2" t="n">
         <v>45439.05493958334</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2344,25 +2344,25 @@
       <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A29" t="n">
+        <v>1003</v>
       </c>
       <c r="B29" t="n">
-        <v>1003</v>
+        <v>38.084107</v>
       </c>
       <c r="C29" t="n">
-        <v>38.084107</v>
+        <v>126.597537</v>
       </c>
       <c r="D29" t="n">
-        <v>126.597537</v>
-      </c>
-      <c r="E29" t="n">
         <v>705.16</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="E29" s="2" t="n">
         <v>45439.05493958334</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2411,25 +2411,25 @@
       <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A30" t="n">
+        <v>1003</v>
       </c>
       <c r="B30" t="n">
-        <v>1003</v>
+        <v>38.084107</v>
       </c>
       <c r="C30" t="n">
-        <v>38.084107</v>
+        <v>126.597537</v>
       </c>
       <c r="D30" t="n">
-        <v>126.597537</v>
-      </c>
-      <c r="E30" t="n">
         <v>705.16</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="E30" s="2" t="n">
         <v>45439.05493958334</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2478,25 +2478,25 @@
       <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A31" t="n">
+        <v>1003</v>
       </c>
       <c r="B31" t="n">
-        <v>1003</v>
+        <v>38.084107</v>
       </c>
       <c r="C31" t="n">
-        <v>38.084107</v>
+        <v>126.597537</v>
       </c>
       <c r="D31" t="n">
-        <v>126.597537</v>
-      </c>
-      <c r="E31" t="n">
         <v>705.16</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="E31" s="2" t="n">
         <v>45439.05493958334</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2545,25 +2545,25 @@
       <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A32" t="n">
+        <v>1004</v>
       </c>
       <c r="B32" t="n">
-        <v>1004</v>
+        <v>38.084155</v>
       </c>
       <c r="C32" t="n">
-        <v>38.084155</v>
+        <v>126.602059</v>
       </c>
       <c r="D32" t="n">
-        <v>126.602059</v>
-      </c>
-      <c r="E32" t="n">
         <v>770.66</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="E32" s="2" t="n">
         <v>45439.05560243056</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2612,25 +2612,25 @@
       <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A33" t="n">
+        <v>1004</v>
       </c>
       <c r="B33" t="n">
-        <v>1004</v>
+        <v>38.084155</v>
       </c>
       <c r="C33" t="n">
-        <v>38.084155</v>
+        <v>126.602059</v>
       </c>
       <c r="D33" t="n">
-        <v>126.602059</v>
-      </c>
-      <c r="E33" t="n">
         <v>770.66</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="E33" s="2" t="n">
         <v>45439.05560243056</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2679,25 +2679,25 @@
       <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A34" t="n">
+        <v>1004</v>
       </c>
       <c r="B34" t="n">
-        <v>1004</v>
+        <v>38.084155</v>
       </c>
       <c r="C34" t="n">
-        <v>38.084155</v>
+        <v>126.602059</v>
       </c>
       <c r="D34" t="n">
-        <v>126.602059</v>
-      </c>
-      <c r="E34" t="n">
         <v>770.66</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="E34" s="2" t="n">
         <v>45439.05560243056</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2746,25 +2746,25 @@
       <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A35" t="n">
+        <v>1004</v>
       </c>
       <c r="B35" t="n">
-        <v>1004</v>
+        <v>38.084155</v>
       </c>
       <c r="C35" t="n">
-        <v>38.084155</v>
+        <v>126.602059</v>
       </c>
       <c r="D35" t="n">
-        <v>126.602059</v>
-      </c>
-      <c r="E35" t="n">
         <v>770.66</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="E35" s="2" t="n">
         <v>45439.05560243056</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2813,25 +2813,25 @@
       <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A36" t="n">
+        <v>1004</v>
       </c>
       <c r="B36" t="n">
-        <v>1004</v>
+        <v>38.084155</v>
       </c>
       <c r="C36" t="n">
-        <v>38.084155</v>
+        <v>126.602059</v>
       </c>
       <c r="D36" t="n">
-        <v>126.602059</v>
-      </c>
-      <c r="E36" t="n">
         <v>770.66</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="E36" s="2" t="n">
         <v>45439.05560243056</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2880,25 +2880,25 @@
       <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A37" t="n">
+        <v>1004</v>
       </c>
       <c r="B37" t="n">
-        <v>1004</v>
+        <v>38.084155</v>
       </c>
       <c r="C37" t="n">
-        <v>38.084155</v>
+        <v>126.602059</v>
       </c>
       <c r="D37" t="n">
-        <v>126.602059</v>
-      </c>
-      <c r="E37" t="n">
         <v>770.66</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="E37" s="2" t="n">
         <v>45439.05560243056</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2947,25 +2947,25 @@
       <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A38" t="n">
+        <v>1004</v>
       </c>
       <c r="B38" t="n">
-        <v>1004</v>
+        <v>38.084155</v>
       </c>
       <c r="C38" t="n">
-        <v>38.084155</v>
+        <v>126.602059</v>
       </c>
       <c r="D38" t="n">
-        <v>126.602059</v>
-      </c>
-      <c r="E38" t="n">
         <v>770.66</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="E38" s="2" t="n">
         <v>45439.05560243056</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3014,25 +3014,25 @@
       <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A39" t="n">
+        <v>1004</v>
       </c>
       <c r="B39" t="n">
-        <v>1004</v>
+        <v>38.084155</v>
       </c>
       <c r="C39" t="n">
-        <v>38.084155</v>
+        <v>126.602059</v>
       </c>
       <c r="D39" t="n">
-        <v>126.602059</v>
-      </c>
-      <c r="E39" t="n">
         <v>770.66</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="E39" s="2" t="n">
         <v>45439.05560243056</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3081,25 +3081,25 @@
       <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A40" t="n">
+        <v>1004</v>
       </c>
       <c r="B40" t="n">
-        <v>1004</v>
+        <v>38.084155</v>
       </c>
       <c r="C40" t="n">
-        <v>38.084155</v>
+        <v>126.602059</v>
       </c>
       <c r="D40" t="n">
-        <v>126.602059</v>
-      </c>
-      <c r="E40" t="n">
         <v>770.66</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="E40" s="2" t="n">
         <v>45439.05560243056</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3148,25 +3148,25 @@
       <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A41" t="n">
+        <v>1004</v>
       </c>
       <c r="B41" t="n">
-        <v>1004</v>
+        <v>38.084155</v>
       </c>
       <c r="C41" t="n">
-        <v>38.084155</v>
+        <v>126.602059</v>
       </c>
       <c r="D41" t="n">
-        <v>126.602059</v>
-      </c>
-      <c r="E41" t="n">
         <v>770.66</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="E41" s="2" t="n">
         <v>45439.05560243056</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3215,25 +3215,25 @@
       <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A42" t="n">
+        <v>1004</v>
       </c>
       <c r="B42" t="n">
-        <v>1004</v>
+        <v>38.084155</v>
       </c>
       <c r="C42" t="n">
-        <v>38.084155</v>
+        <v>126.602059</v>
       </c>
       <c r="D42" t="n">
-        <v>126.602059</v>
-      </c>
-      <c r="E42" t="n">
         <v>770.66</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="E42" s="2" t="n">
         <v>45439.05560243056</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3282,25 +3282,25 @@
       <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A43" t="n">
+        <v>1004</v>
       </c>
       <c r="B43" t="n">
-        <v>1004</v>
+        <v>38.084155</v>
       </c>
       <c r="C43" t="n">
-        <v>38.084155</v>
+        <v>126.602059</v>
       </c>
       <c r="D43" t="n">
-        <v>126.602059</v>
-      </c>
-      <c r="E43" t="n">
         <v>770.66</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="E43" s="2" t="n">
         <v>45439.05560243056</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3349,25 +3349,25 @@
       <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A44" t="n">
+        <v>1004</v>
       </c>
       <c r="B44" t="n">
-        <v>1004</v>
+        <v>38.084155</v>
       </c>
       <c r="C44" t="n">
-        <v>38.084155</v>
+        <v>126.602059</v>
       </c>
       <c r="D44" t="n">
-        <v>126.602059</v>
-      </c>
-      <c r="E44" t="n">
         <v>770.66</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="E44" s="2" t="n">
         <v>45439.05560243056</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3416,25 +3416,25 @@
       <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A45" t="n">
+        <v>1005</v>
       </c>
       <c r="B45" t="n">
-        <v>1005</v>
+        <v>38.088481</v>
       </c>
       <c r="C45" t="n">
-        <v>38.088481</v>
+        <v>126.597389</v>
       </c>
       <c r="D45" t="n">
-        <v>126.597389</v>
-      </c>
-      <c r="E45" t="n">
         <v>1004.5</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="E45" s="2" t="n">
         <v>45439.05639328704</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3483,25 +3483,25 @@
       <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A46" t="n">
+        <v>1005</v>
       </c>
       <c r="B46" t="n">
-        <v>1005</v>
+        <v>38.088481</v>
       </c>
       <c r="C46" t="n">
-        <v>38.088481</v>
+        <v>126.597389</v>
       </c>
       <c r="D46" t="n">
-        <v>126.597389</v>
-      </c>
-      <c r="E46" t="n">
         <v>1004.5</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="E46" s="2" t="n">
         <v>45439.05639328704</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3550,25 +3550,25 @@
       <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A47" t="n">
+        <v>1005</v>
       </c>
       <c r="B47" t="n">
-        <v>1005</v>
+        <v>38.088481</v>
       </c>
       <c r="C47" t="n">
-        <v>38.088481</v>
+        <v>126.597389</v>
       </c>
       <c r="D47" t="n">
-        <v>126.597389</v>
-      </c>
-      <c r="E47" t="n">
         <v>1004.5</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="E47" s="2" t="n">
         <v>45439.05639328704</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3617,25 +3617,25 @@
       <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A48" t="n">
+        <v>1005</v>
       </c>
       <c r="B48" t="n">
-        <v>1005</v>
+        <v>38.088481</v>
       </c>
       <c r="C48" t="n">
-        <v>38.088481</v>
+        <v>126.597389</v>
       </c>
       <c r="D48" t="n">
-        <v>126.597389</v>
-      </c>
-      <c r="E48" t="n">
         <v>1004.5</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="E48" s="2" t="n">
         <v>45439.05639328704</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3684,25 +3684,25 @@
       <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A49" t="n">
+        <v>1005</v>
       </c>
       <c r="B49" t="n">
-        <v>1005</v>
+        <v>38.088481</v>
       </c>
       <c r="C49" t="n">
-        <v>38.088481</v>
+        <v>126.597389</v>
       </c>
       <c r="D49" t="n">
-        <v>126.597389</v>
-      </c>
-      <c r="E49" t="n">
         <v>1004.5</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="E49" s="2" t="n">
         <v>45439.05639328704</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3751,25 +3751,25 @@
       <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A50" t="n">
+        <v>1005</v>
       </c>
       <c r="B50" t="n">
-        <v>1005</v>
+        <v>38.088481</v>
       </c>
       <c r="C50" t="n">
-        <v>38.088481</v>
+        <v>126.597389</v>
       </c>
       <c r="D50" t="n">
-        <v>126.597389</v>
-      </c>
-      <c r="E50" t="n">
         <v>1004.5</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="E50" s="2" t="n">
         <v>45439.05639328704</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3818,25 +3818,25 @@
       <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A51" t="n">
+        <v>1005</v>
       </c>
       <c r="B51" t="n">
-        <v>1005</v>
+        <v>38.088481</v>
       </c>
       <c r="C51" t="n">
-        <v>38.088481</v>
+        <v>126.597389</v>
       </c>
       <c r="D51" t="n">
-        <v>126.597389</v>
-      </c>
-      <c r="E51" t="n">
         <v>1004.5</v>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="E51" s="2" t="n">
         <v>45439.05639328704</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3885,25 +3885,25 @@
       <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A52" t="n">
+        <v>1005</v>
       </c>
       <c r="B52" t="n">
-        <v>1005</v>
+        <v>38.088481</v>
       </c>
       <c r="C52" t="n">
-        <v>38.088481</v>
+        <v>126.597389</v>
       </c>
       <c r="D52" t="n">
-        <v>126.597389</v>
-      </c>
-      <c r="E52" t="n">
         <v>1004.5</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="E52" s="2" t="n">
         <v>45439.05639328704</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3952,25 +3952,25 @@
       <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
+      <c r="A53" t="n">
+        <v>1005</v>
       </c>
       <c r="B53" t="n">
-        <v>1005</v>
+        <v>38.088481</v>
       </c>
       <c r="C53" t="n">
-        <v>38.088481</v>
+        <v>126.597389</v>
       </c>
       <c r="D53" t="n">
-        <v>126.597389</v>
-      </c>
-      <c r="E53" t="n">
         <v>1004.5</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="E53" s="2" t="n">
         <v>45439.05639328704</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>

--- a/tests/sample_tests_data/results/lqt_catalog/lqt_catalog.xlsx
+++ b/tests/sample_tests_data/results/lqt_catalog/lqt_catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SEML\GITHUB DEPLOY\lqt-moment-magnitude\tests\sample_tests_data\results\lqt_catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DB5EAD-1501-43C3-AEC9-A7487FFFA851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DE15FE-959D-45ED-91A8-545A4E97F66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -197,7 +197,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
